--- a/gams/res_sum_Q_rB_DA.xlsx
+++ b/gams/res_sum_Q_rB_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925E8787-FED6-42D4-AAF8-B36DFA5D0359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8492A84D-CD85-4BAF-B218-35A0399E749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{B893E2FB-2A17-472D-92A9-818D1DE90F22}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{B893E2FB-2A17-472D-92A9-818D1DE90F22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rB_DA.xlsx
+++ b/gams/res_sum_Q_rB_DA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8492A84D-CD85-4BAF-B218-35A0399E749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D80969-6273-4D19-9C1E-84D13960D7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{B893E2FB-2A17-472D-92A9-818D1DE90F22}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{B893E2FB-2A17-472D-92A9-818D1DE90F22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rB_DA.xlsx
+++ b/gams/res_sum_Q_rB_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D80969-6273-4D19-9C1E-84D13960D7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E422C-41DE-4192-A2BF-675C6717C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{B893E2FB-2A17-472D-92A9-818D1DE90F22}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{3EC059AD-066F-4713-8D12-46033921721D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA89C5F-3E78-4026-B53F-0B2CD31B9B31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2D14E7-9CDA-491C-9C37-432BE95B069D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.9158500000000003</v>
+        <v>0.39043636363636364</v>
       </c>
     </row>
   </sheetData>
